--- a/ShaveIce.xlsx
+++ b/ShaveIce.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Desktop\Data Science\ZTM_Excel_Mastery\Notebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Desktop\Data Science\ZTM_Excel_Mastery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F05A3-B9E2-4AD9-A881-5997E1AE0D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E2644B-7E7C-4D36-8B63-759095391D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{83233779-FC06-4498-A624-61B05FE045B3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>FLAVOR</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>PROP OF SALES BY FLVR</t>
+  </si>
+  <si>
+    <t>SALE DATETIME</t>
+  </si>
+  <si>
+    <t>CUSTOMER COMMENT</t>
+  </si>
+  <si>
+    <t>CUSTOMER RATING</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
   </si>
 </sst>
 </file>
@@ -78,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +105,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,10 +147,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,43 +487,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E802654-6865-4583-8140-32F85816F516}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -486,8 +551,8 @@
         <v>0.156364</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -503,8 +568,8 @@
         <v>0.141818</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -520,8 +585,8 @@
         <v>0.10181800000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -537,8 +602,8 @@
         <v>0.18181800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -554,8 +619,8 @@
         <v>0.138182</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -571,8 +636,8 @@
         <v>0.141818</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -588,8 +653,8 @@
         <v>0.138182</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -605,8 +670,8 @@
         <v>0.38181799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -621,26 +686,39 @@
       <c r="E10" s="2">
         <v>0.56781800000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="F10" s="3">
+        <v>44260.46597222222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="9">
         <v>20.9</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="10">
         <v>0.236818</v>
+      </c>
+      <c r="F11" s="11">
+        <v>44258.598611111112</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
